--- a/Ke-hoach-thuc-hien-Do-An-1.xlsx
+++ b/Ke-hoach-thuc-hien-Do-An-1.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21001"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\nguye\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\phamp\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4B6FDCDB-728B-4ED7-B09A-4E06980B4537}" xr6:coauthVersionLast="38" xr6:coauthVersionMax="38" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7800"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7485" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Kế Hoạch" sheetId="2" r:id="rId1"/>
@@ -27,7 +28,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="64" uniqueCount="42">
   <si>
     <t>STT</t>
   </si>
@@ -126,12 +127,39 @@
   </si>
   <si>
     <t>Kiểm tra lỗi , fix lỗi (nếu có)</t>
+  </si>
+  <si>
+    <t>13/11/2018</t>
+  </si>
+  <si>
+    <t>19/11/2018</t>
+  </si>
+  <si>
+    <t>Xây dựng chức năng trộn đề, không cho mở màn hình</t>
+  </si>
+  <si>
+    <t>20/11/2018</t>
+  </si>
+  <si>
+    <t>Code cho giao diện</t>
+  </si>
+  <si>
+    <t>25/11/2018</t>
+  </si>
+  <si>
+    <t>Tìm kiếm chức năng mới</t>
+  </si>
+  <si>
+    <t>23/11/2018</t>
+  </si>
+  <si>
+    <t>29/11/2018</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="13" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -229,7 +257,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="26">
+  <borders count="25">
     <border>
       <left/>
       <right/>
@@ -251,19 +279,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="medium">
         <color auto="1"/>
       </left>
@@ -336,16 +351,189 @@
       <diagonal/>
     </border>
     <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="dashed">
         <color auto="1"/>
       </left>
       <right style="medium">
         <color auto="1"/>
       </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="medium">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
       <top/>
-      <bottom style="thick">
+      <bottom style="hair">
         <color auto="1"/>
       </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="medium">
+        <color auto="1"/>
+      </left>
+      <right/>
+      <top style="hair">
+        <color auto="1"/>
+      </top>
+      <bottom style="hair">
+        <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="dashed">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
       <diagonal/>
     </border>
     <border>
@@ -354,215 +542,30 @@
       </left>
       <right/>
       <top/>
-      <bottom style="thick">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
+        <color auto="1"/>
+      </left>
+      <right style="medium">
+        <color auto="1"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="dashed">
         <color auto="1"/>
       </left>
       <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="medium">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right/>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="hair">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="medium">
         <color auto="1"/>
       </right>
       <top/>
       <bottom style="hair">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right style="medium">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="hair">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="dashed">
-        <color auto="1"/>
-      </left>
-      <right style="dashed">
-        <color auto="1"/>
-      </right>
-      <top style="thick">
-        <color auto="1"/>
-      </top>
-      <bottom style="dashed">
-        <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="medium">
-        <color rgb="FF000000"/>
-      </left>
-      <right style="medium">
-        <color rgb="FF000000"/>
-      </right>
-      <top style="medium">
-        <color rgb="FFCCCCCC"/>
-      </top>
-      <bottom style="medium">
-        <color rgb="FF000000"/>
       </bottom>
       <diagonal/>
     </border>
@@ -571,7 +574,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="73">
+  <cellXfs count="70">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -580,16 +583,16 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="2" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="2" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -604,82 +607,82 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="11" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="8" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="12" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="14" fontId="2" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="2" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="13" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="19" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="16" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="3" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="3" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="3" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
@@ -691,101 +694,92 @@
     <xf numFmtId="1" fontId="8" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="25" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
     <xf numFmtId="1" fontId="10" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="11" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="10" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="5" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="4" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="9" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="17" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="1" fontId="6" fillId="0" borderId="7" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="19" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="12" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="11" fillId="0" borderId="20" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="17" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="24" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="14" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="22" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="23" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="12" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="14" fontId="12" fillId="0" borderId="18" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="21" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="1" fontId="11" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="20" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="15" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="15" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="18" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="14" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="14" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="5" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="1" fontId="6" fillId="0" borderId="8" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1102,19 +1096,19 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="2" name="Table2" displayName="Table2" ref="A5:J33" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
-  <autoFilter ref="A5:J33"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{00000000-000C-0000-FFFF-FFFF00000000}" name="Table2" displayName="Table2" ref="A5:J33" totalsRowShown="0" headerRowDxfId="12" headerRowBorderDxfId="11" tableBorderDxfId="10">
+  <autoFilter ref="A5:J33" xr:uid="{00000000-0009-0000-0100-000002000000}"/>
   <tableColumns count="10">
-    <tableColumn id="1" name="STT" dataDxfId="9"/>
-    <tableColumn id="2" name="DANH SÁCH CÔNG VIỆC" dataDxfId="8"/>
-    <tableColumn id="3" name="Ghi chú" dataDxfId="7"/>
-    <tableColumn id="7" name="Nguyễn Việt Anh" dataDxfId="6"/>
-    <tableColumn id="4" name="Phạm Hoài Phong" dataDxfId="5"/>
-    <tableColumn id="5" name="GHI CHÚ2" dataDxfId="4"/>
-    <tableColumn id="10" name="Ngày bắt đầu (dự kiến)" dataDxfId="3"/>
-    <tableColumn id="9" name="Ngày kết thúc (dự kiến)" dataDxfId="2"/>
-    <tableColumn id="8" name="Ngày bắt đầu (thực tế)" dataDxfId="1"/>
-    <tableColumn id="6" name="Ngày kết thúc (thực tế)" dataDxfId="0"/>
+    <tableColumn id="1" xr3:uid="{00000000-0010-0000-0000-000001000000}" name="STT" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{00000000-0010-0000-0000-000002000000}" name="DANH SÁCH CÔNG VIỆC" dataDxfId="8"/>
+    <tableColumn id="3" xr3:uid="{00000000-0010-0000-0000-000003000000}" name="Ghi chú" dataDxfId="7"/>
+    <tableColumn id="7" xr3:uid="{00000000-0010-0000-0000-000007000000}" name="Nguyễn Việt Anh" dataDxfId="6"/>
+    <tableColumn id="4" xr3:uid="{00000000-0010-0000-0000-000004000000}" name="Phạm Hoài Phong" dataDxfId="5"/>
+    <tableColumn id="5" xr3:uid="{00000000-0010-0000-0000-000005000000}" name="GHI CHÚ2" dataDxfId="4"/>
+    <tableColumn id="10" xr3:uid="{00000000-0010-0000-0000-00000A000000}" name="Ngày bắt đầu (dự kiến)" dataDxfId="3"/>
+    <tableColumn id="9" xr3:uid="{00000000-0010-0000-0000-000009000000}" name="Ngày kết thúc (dự kiến)" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{00000000-0010-0000-0000-000008000000}" name="Ngày bắt đầu (thực tế)" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{00000000-0010-0000-0000-000006000000}" name="Ngày kết thúc (thực tế)" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium2" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -1382,17 +1376,17 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:Z33"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="B4" zoomScale="82" zoomScaleNormal="82" zoomScalePageLayoutView="82" workbookViewId="0">
+      <selection activeCell="D16" sqref="D16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.85546875" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="7" style="9" customWidth="1"/>
-    <col min="2" max="2" width="48.85546875" style="1" customWidth="1"/>
+    <col min="2" max="2" width="57.140625" style="1" customWidth="1"/>
     <col min="3" max="3" width="61" style="10" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="25.85546875" style="27" customWidth="1"/>
     <col min="5" max="5" width="25.85546875" style="11" customWidth="1"/>
@@ -1405,18 +1399,18 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:26" s="38" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A1" s="70" t="s">
+      <c r="A1" s="51" t="s">
         <v>26</v>
       </c>
-      <c r="B1" s="71"/>
-      <c r="C1" s="71"/>
-      <c r="D1" s="71"/>
-      <c r="E1" s="71"/>
-      <c r="F1" s="71"/>
-      <c r="G1" s="71"/>
-      <c r="H1" s="71"/>
-      <c r="I1" s="71"/>
-      <c r="J1" s="72"/>
+      <c r="B1" s="52"/>
+      <c r="C1" s="52"/>
+      <c r="D1" s="52"/>
+      <c r="E1" s="52"/>
+      <c r="F1" s="52"/>
+      <c r="G1" s="52"/>
+      <c r="H1" s="52"/>
+      <c r="I1" s="52"/>
+      <c r="J1" s="53"/>
     </row>
     <row r="2" spans="1:26" s="38" customFormat="1" ht="28.35" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="35"/>
@@ -1461,60 +1455,64 @@
       <c r="J4" s="37"/>
     </row>
     <row r="5" spans="1:26" s="3" customFormat="1" ht="25.35" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="42" t="s">
+      <c r="A5" s="41" t="s">
         <v>0</v>
       </c>
-      <c r="B5" s="43" t="s">
+      <c r="B5" s="57" t="s">
         <v>1</v>
       </c>
-      <c r="C5" s="43" t="s">
+      <c r="C5" s="57" t="s">
         <v>9</v>
       </c>
-      <c r="D5" s="44" t="s">
+      <c r="D5" s="58" t="s">
         <v>11</v>
       </c>
-      <c r="E5" s="44" t="s">
+      <c r="E5" s="58" t="s">
         <v>12</v>
       </c>
-      <c r="F5" s="44" t="s">
+      <c r="F5" s="58" t="s">
         <v>10</v>
       </c>
-      <c r="G5" s="44" t="s">
+      <c r="G5" s="58" t="s">
         <v>4</v>
       </c>
-      <c r="H5" s="44" t="s">
+      <c r="H5" s="58" t="s">
         <v>5</v>
       </c>
-      <c r="I5" s="44" t="s">
+      <c r="I5" s="58" t="s">
         <v>6</v>
       </c>
-      <c r="J5" s="45" t="s">
+      <c r="J5" s="59" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="6" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="46">
+    <row r="6" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="54">
         <v>1</v>
       </c>
-      <c r="B6" s="41" t="s">
+      <c r="B6" s="62" t="s">
         <v>13</v>
       </c>
-      <c r="C6" s="47" t="s">
+      <c r="C6" s="63" t="s">
         <v>29</v>
       </c>
-      <c r="D6" s="48"/>
-      <c r="E6" s="49" t="s">
+      <c r="D6" s="64"/>
+      <c r="E6" s="65" t="s">
         <v>27</v>
       </c>
-      <c r="F6" s="50"/>
-      <c r="G6" s="67">
+      <c r="F6" s="65"/>
+      <c r="G6" s="66">
         <v>43231</v>
       </c>
-      <c r="H6" s="67">
+      <c r="H6" s="66">
         <v>43415</v>
       </c>
-      <c r="I6" s="52"/>
-      <c r="J6" s="53"/>
+      <c r="I6" s="66">
+        <v>43262</v>
+      </c>
+      <c r="J6" s="66">
+        <v>43384</v>
+      </c>
       <c r="K6" s="2"/>
       <c r="L6" s="2"/>
       <c r="M6" s="2"/>
@@ -1532,53 +1530,61 @@
       <c r="Y6" s="2"/>
       <c r="Z6" s="2"/>
     </row>
-    <row r="7" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickTop="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="54">
+    <row r="7" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="55">
         <v>2</v>
       </c>
-      <c r="B7" s="41" t="s">
+      <c r="B7" s="62" t="s">
         <v>14</v>
       </c>
-      <c r="C7" s="55"/>
-      <c r="D7" s="56" t="s">
+      <c r="C7" s="63"/>
+      <c r="D7" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E7" s="57" t="s">
+      <c r="E7" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="F7" s="51"/>
-      <c r="G7" s="68">
+      <c r="F7" s="65"/>
+      <c r="G7" s="66">
         <v>43201</v>
       </c>
-      <c r="H7" s="68">
+      <c r="H7" s="66">
         <v>43292</v>
       </c>
-      <c r="I7" s="57"/>
-      <c r="J7" s="58"/>
-    </row>
-    <row r="8" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="59">
+      <c r="I7" s="66">
+        <v>43201</v>
+      </c>
+      <c r="J7" s="66">
+        <v>43292</v>
+      </c>
+    </row>
+    <row r="8" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A8" s="56">
         <v>3</v>
       </c>
-      <c r="B8" s="41" t="s">
+      <c r="B8" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="C8" s="55"/>
-      <c r="D8" s="48" t="s">
+      <c r="C8" s="63"/>
+      <c r="D8" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E8" s="50" t="s">
+      <c r="E8" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="F8" s="50"/>
-      <c r="G8" s="62">
+      <c r="F8" s="65"/>
+      <c r="G8" s="66">
         <v>43323</v>
       </c>
-      <c r="H8" s="62">
+      <c r="H8" s="66">
         <v>43384</v>
       </c>
-      <c r="I8" s="60"/>
-      <c r="J8" s="61"/>
+      <c r="I8" s="66">
+        <v>43323</v>
+      </c>
+      <c r="J8" s="66">
+        <v>43354</v>
+      </c>
       <c r="K8" s="2"/>
       <c r="L8" s="2"/>
       <c r="M8" s="2"/>
@@ -1596,31 +1602,35 @@
       <c r="Y8" s="2"/>
       <c r="Z8" s="2"/>
     </row>
-    <row r="9" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="59">
+    <row r="9" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A9" s="56">
         <v>4</v>
       </c>
-      <c r="B9" s="41" t="s">
+      <c r="B9" s="62" t="s">
         <v>16</v>
       </c>
-      <c r="C9" s="55"/>
-      <c r="D9" s="48" t="s">
+      <c r="C9" s="63"/>
+      <c r="D9" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E9" s="50" t="s">
+      <c r="E9" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="F9" s="50" t="s">
+      <c r="F9" s="65" t="s">
         <v>3</v>
       </c>
-      <c r="G9" s="62">
+      <c r="G9" s="66">
         <v>43415</v>
       </c>
-      <c r="H9" s="50" t="s">
+      <c r="H9" s="65" t="s">
         <v>21</v>
       </c>
-      <c r="I9" s="62"/>
-      <c r="J9" s="63"/>
+      <c r="I9" s="66">
+        <v>43415</v>
+      </c>
+      <c r="J9" s="66" t="s">
+        <v>33</v>
+      </c>
       <c r="K9" s="2"/>
       <c r="L9" s="2"/>
       <c r="M9" s="2"/>
@@ -1638,81 +1648,85 @@
       <c r="Y9" s="2"/>
       <c r="Z9" s="2"/>
     </row>
-    <row r="10" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="54">
+    <row r="10" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="55">
         <v>5</v>
       </c>
-      <c r="B10" s="41" t="s">
+      <c r="B10" s="62" t="s">
         <v>17</v>
       </c>
-      <c r="C10" s="55"/>
-      <c r="D10" s="48" t="s">
+      <c r="C10" s="63"/>
+      <c r="D10" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E10" s="50" t="s">
+      <c r="E10" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="F10" s="50"/>
-      <c r="G10" s="50" t="s">
+      <c r="F10" s="65"/>
+      <c r="G10" s="65" t="s">
         <v>25</v>
       </c>
-      <c r="H10" s="62" t="s">
+      <c r="H10" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I10" s="50"/>
-      <c r="J10" s="64"/>
-    </row>
-    <row r="11" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="54">
+      <c r="I10" s="65" t="s">
+        <v>21</v>
+      </c>
+      <c r="J10" s="65" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="11" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A11" s="55">
         <v>6</v>
       </c>
-      <c r="B11" s="41" t="s">
+      <c r="B11" s="62" t="s">
         <v>18</v>
       </c>
-      <c r="C11" s="55" t="s">
+      <c r="C11" s="63" t="s">
         <v>32</v>
       </c>
-      <c r="D11" s="48" t="s">
+      <c r="D11" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E11" s="50" t="s">
+      <c r="E11" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="F11" s="50"/>
-      <c r="G11" s="50" t="s">
+      <c r="F11" s="65"/>
+      <c r="G11" s="65" t="s">
         <v>22</v>
       </c>
-      <c r="H11" s="62" t="s">
+      <c r="H11" s="66" t="s">
         <v>23</v>
       </c>
-      <c r="I11" s="50"/>
-      <c r="J11" s="64"/>
-    </row>
-    <row r="12" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="59">
+      <c r="I11" s="65"/>
+      <c r="J11" s="65"/>
+    </row>
+    <row r="12" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A12" s="56">
         <v>7</v>
       </c>
-      <c r="B12" s="41" t="s">
+      <c r="B12" s="62" t="s">
         <v>19</v>
       </c>
-      <c r="C12" s="55" t="s">
+      <c r="C12" s="63" t="s">
         <v>30</v>
       </c>
-      <c r="D12" s="56" t="s">
+      <c r="D12" s="64" t="s">
         <v>28</v>
       </c>
-      <c r="E12" s="57"/>
-      <c r="F12" s="50" t="s">
+      <c r="E12" s="65"/>
+      <c r="F12" s="65" t="s">
         <v>2</v>
       </c>
-      <c r="G12" s="50" t="s">
+      <c r="G12" s="65" t="s">
         <v>24</v>
       </c>
-      <c r="H12" s="62">
+      <c r="H12" s="66">
         <v>43143</v>
       </c>
-      <c r="I12" s="50"/>
-      <c r="J12" s="64"/>
+      <c r="I12" s="65"/>
+      <c r="J12" s="65"/>
       <c r="K12" s="2"/>
       <c r="L12" s="2"/>
       <c r="M12" s="2"/>
@@ -1730,31 +1744,31 @@
       <c r="Y12" s="2"/>
       <c r="Z12" s="2"/>
     </row>
-    <row r="13" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="59">
+    <row r="13" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A13" s="56">
         <v>8</v>
       </c>
-      <c r="B13" s="41" t="s">
+      <c r="B13" s="62" t="s">
         <v>20</v>
       </c>
-      <c r="C13" s="65" t="s">
+      <c r="C13" s="67" t="s">
         <v>31</v>
       </c>
-      <c r="D13" s="66" t="s">
+      <c r="D13" s="68" t="s">
         <v>28</v>
       </c>
-      <c r="E13" s="57" t="s">
+      <c r="E13" s="65" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="50"/>
-      <c r="G13" s="62">
+      <c r="F13" s="65"/>
+      <c r="G13" s="66">
         <v>43143</v>
       </c>
-      <c r="H13" s="62">
+      <c r="H13" s="66">
         <v>43446</v>
       </c>
-      <c r="I13" s="50"/>
-      <c r="J13" s="64"/>
+      <c r="I13" s="65"/>
+      <c r="J13" s="65"/>
       <c r="K13" s="2"/>
       <c r="L13" s="2"/>
       <c r="M13" s="2"/>
@@ -1773,16 +1787,26 @@
       <c r="Z13" s="2"/>
     </row>
     <row r="14" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A14" s="59"/>
-      <c r="B14" s="69"/>
-      <c r="C14" s="65"/>
-      <c r="D14" s="66"/>
-      <c r="E14" s="57"/>
-      <c r="F14" s="50"/>
-      <c r="G14" s="62"/>
-      <c r="H14" s="62"/>
-      <c r="I14" s="50"/>
-      <c r="J14" s="64"/>
+      <c r="A14" s="56">
+        <v>9</v>
+      </c>
+      <c r="B14" s="69" t="s">
+        <v>35</v>
+      </c>
+      <c r="C14" s="67"/>
+      <c r="D14" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E14" s="65"/>
+      <c r="F14" s="65"/>
+      <c r="G14" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="H14" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I14" s="65"/>
+      <c r="J14" s="65"/>
       <c r="K14" s="2"/>
       <c r="L14" s="2"/>
       <c r="M14" s="2"/>
@@ -1801,16 +1825,28 @@
       <c r="Z14" s="2"/>
     </row>
     <row r="15" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A15" s="59"/>
-      <c r="B15" s="69"/>
-      <c r="C15" s="65"/>
-      <c r="D15" s="66"/>
-      <c r="E15" s="57"/>
-      <c r="F15" s="50"/>
-      <c r="G15" s="62"/>
-      <c r="H15" s="62"/>
-      <c r="I15" s="50"/>
-      <c r="J15" s="64"/>
+      <c r="A15" s="56">
+        <v>10</v>
+      </c>
+      <c r="B15" s="62" t="s">
+        <v>37</v>
+      </c>
+      <c r="C15" s="67"/>
+      <c r="D15" s="68" t="s">
+        <v>28</v>
+      </c>
+      <c r="E15" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F15" s="65"/>
+      <c r="G15" s="66" t="s">
+        <v>36</v>
+      </c>
+      <c r="H15" s="66" t="s">
+        <v>38</v>
+      </c>
+      <c r="I15" s="65"/>
+      <c r="J15" s="65"/>
       <c r="K15" s="2"/>
       <c r="L15" s="2"/>
       <c r="M15" s="2"/>
@@ -1829,16 +1865,26 @@
       <c r="Z15" s="2"/>
     </row>
     <row r="16" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A16" s="59"/>
-      <c r="B16" s="69"/>
-      <c r="C16" s="65"/>
-      <c r="D16" s="66"/>
-      <c r="E16" s="57"/>
-      <c r="F16" s="50"/>
-      <c r="G16" s="62"/>
-      <c r="H16" s="62"/>
-      <c r="I16" s="50"/>
-      <c r="J16" s="64"/>
+      <c r="A16" s="56">
+        <v>11</v>
+      </c>
+      <c r="B16" s="62" t="s">
+        <v>39</v>
+      </c>
+      <c r="C16" s="67"/>
+      <c r="D16" s="68"/>
+      <c r="E16" s="65" t="s">
+        <v>28</v>
+      </c>
+      <c r="F16" s="65"/>
+      <c r="G16" s="66" t="s">
+        <v>40</v>
+      </c>
+      <c r="H16" s="66" t="s">
+        <v>41</v>
+      </c>
+      <c r="I16" s="65"/>
+      <c r="J16" s="65"/>
       <c r="K16" s="2"/>
       <c r="L16" s="2"/>
       <c r="M16" s="2"/>
@@ -1857,28 +1903,28 @@
       <c r="Z16" s="2"/>
     </row>
     <row r="17" spans="1:26" s="2" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A17" s="59"/>
-      <c r="B17" s="69"/>
-      <c r="C17" s="65"/>
-      <c r="D17" s="66"/>
-      <c r="E17" s="57"/>
-      <c r="F17" s="50"/>
-      <c r="G17" s="62"/>
-      <c r="H17" s="62"/>
-      <c r="I17" s="50"/>
-      <c r="J17" s="64"/>
+      <c r="A17" s="44"/>
+      <c r="B17" s="50"/>
+      <c r="C17" s="60"/>
+      <c r="D17" s="48"/>
+      <c r="E17" s="43"/>
+      <c r="F17" s="43"/>
+      <c r="G17" s="49"/>
+      <c r="H17" s="49"/>
+      <c r="I17" s="43"/>
+      <c r="J17" s="61"/>
     </row>
     <row r="18" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A18" s="59"/>
-      <c r="B18" s="69"/>
-      <c r="C18" s="65"/>
-      <c r="D18" s="66"/>
-      <c r="E18" s="57"/>
-      <c r="F18" s="50"/>
-      <c r="G18" s="62"/>
-      <c r="H18" s="62"/>
-      <c r="I18" s="50"/>
-      <c r="J18" s="64"/>
+      <c r="A18" s="44"/>
+      <c r="B18" s="50"/>
+      <c r="C18" s="47"/>
+      <c r="D18" s="48"/>
+      <c r="E18" s="43"/>
+      <c r="F18" s="42"/>
+      <c r="G18" s="45"/>
+      <c r="H18" s="45"/>
+      <c r="I18" s="42"/>
+      <c r="J18" s="46"/>
       <c r="K18" s="2"/>
       <c r="L18" s="2"/>
       <c r="M18" s="2"/>
@@ -1897,16 +1943,16 @@
       <c r="Z18" s="2"/>
     </row>
     <row r="19" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A19" s="59"/>
-      <c r="B19" s="69"/>
-      <c r="C19" s="65"/>
-      <c r="D19" s="66"/>
-      <c r="E19" s="57"/>
-      <c r="F19" s="50"/>
-      <c r="G19" s="62"/>
-      <c r="H19" s="62"/>
-      <c r="I19" s="50"/>
-      <c r="J19" s="64"/>
+      <c r="A19" s="44"/>
+      <c r="B19" s="50"/>
+      <c r="C19" s="47"/>
+      <c r="D19" s="48"/>
+      <c r="E19" s="43"/>
+      <c r="F19" s="42"/>
+      <c r="G19" s="45"/>
+      <c r="H19" s="45"/>
+      <c r="I19" s="42"/>
+      <c r="J19" s="46"/>
       <c r="K19" s="2"/>
       <c r="L19" s="2"/>
       <c r="M19" s="2"/>
@@ -1925,16 +1971,16 @@
       <c r="Z19" s="2"/>
     </row>
     <row r="20" spans="1:26" s="8" customFormat="1" ht="20.100000000000001" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="59"/>
-      <c r="B20" s="69"/>
-      <c r="C20" s="65"/>
-      <c r="D20" s="66"/>
-      <c r="E20" s="57"/>
-      <c r="F20" s="50"/>
-      <c r="G20" s="62"/>
-      <c r="H20" s="62"/>
-      <c r="I20" s="50"/>
-      <c r="J20" s="64"/>
+      <c r="A20" s="44"/>
+      <c r="B20" s="50"/>
+      <c r="C20" s="47"/>
+      <c r="D20" s="48"/>
+      <c r="E20" s="43"/>
+      <c r="F20" s="42"/>
+      <c r="G20" s="45"/>
+      <c r="H20" s="45"/>
+      <c r="I20" s="42"/>
+      <c r="J20" s="46"/>
       <c r="K20" s="2"/>
       <c r="L20" s="2"/>
       <c r="M20" s="2"/>
